--- a/com.crm.comcast.sdet28/src/test/resources/VtigersTestData.xlsx
+++ b/com.crm.comcast.sdet28/src/test/resources/VtigersTestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>CreateOrgWithIndustry</t>
+  </si>
+  <si>
+    <t>Product No</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,6 +577,17 @@
         <v>25</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
